--- a/data/hotels_by_city/Houston/Houston_shard_72.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_72.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="193">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d1237172-Reviews-Candlewood_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Candlewood-Suites-Houston-NW-Willowbrook.h2933826.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,453 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1237172-r559069548-Candlewood_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>1237172</t>
+  </si>
+  <si>
+    <t>559069548</t>
+  </si>
+  <si>
+    <t>02/07/2018</t>
+  </si>
+  <si>
+    <t>Very Friendly Welcome</t>
+  </si>
+  <si>
+    <t>Upon my arrival, I was greeted with a very friendly welcome!  I was joining my husband who was traveling for business.  He requested that a key be left at the front desk for me.  When I was checking in, they knew exactly who I was and had the key ready for me.  The room was clean, as well as the gym and laundry room.  Since this was an extended stay for a business trip, my husband got a room with a kitchenette: full size fridge, microwave and stovetop.  Very convenient since breakfast is not served.  Housekeeping only came once a week which was odd.  The rates fell in line with the government per diem.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Sam P, General Manager at Candlewood Suites Houston NW - Willowbrook, responded to this reviewResponded February 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 10, 2018</t>
+  </si>
+  <si>
+    <t>Upon my arrival, I was greeted with a very friendly welcome!  I was joining my husband who was traveling for business.  He requested that a key be left at the front desk for me.  When I was checking in, they knew exactly who I was and had the key ready for me.  The room was clean, as well as the gym and laundry room.  Since this was an extended stay for a business trip, my husband got a room with a kitchenette: full size fridge, microwave and stovetop.  Very convenient since breakfast is not served.  Housekeeping only came once a week which was odd.  The rates fell in line with the government per diem.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1237172-r488841451-Candlewood_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>488841451</t>
+  </si>
+  <si>
+    <t>05/29/2017</t>
+  </si>
+  <si>
+    <t>Bad experience</t>
+  </si>
+  <si>
+    <t>This property is poorly maintained.  My bathtub filled with sewage and I had to change properties.   Management knew of this problem but put me in this room anyways.   It is also located in an area that is not walking distance to restaurants.  MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Sam P, General Manager at Candlewood Suites Houston NW - Willowbrook, responded to this reviewResponded June 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 1, 2017</t>
+  </si>
+  <si>
+    <t>This property is poorly maintained.  My bathtub filled with sewage and I had to change properties.   Management knew of this problem but put me in this room anyways.   It is also located in an area that is not walking distance to restaurants.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1237172-r469603991-Candlewood_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>469603991</t>
+  </si>
+  <si>
+    <t>03/23/2017</t>
+  </si>
+  <si>
+    <t>Stinky hotel. No Breakfast.</t>
+  </si>
+  <si>
+    <t>The first impression is bad. It's located in a bad area. Unless you know exactly where it is, you won't find it. It's behind a used car dealer and another hotel. Only a small driveway connects it to the road. When leaving, you can't actually see oncoming traffic because of the car lot fence so you kind of have to go and pray you don't get hit. When you walk in, the lobby isn't bad, but go up to the rooms (we were on the 3rd floor) and you are hit will the overwhelming smell of cigarette smoke. It smelled similar to how I invision the inside of a smoker's lungs. Remarkably our room didn't smell terrible (it didn't smell great either). I killed a cockroach in the hallway. There's no free breakfast. TVs are flat screen, but super old and the image was not HD. The cleaning service only comes once a week, which for most people means they never come. Needless to say, our trash was overflowing. We were there 4 nights.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Houston NW - Willowbrook, responded to this reviewResponded April 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 6, 2017</t>
+  </si>
+  <si>
+    <t>The first impression is bad. It's located in a bad area. Unless you know exactly where it is, you won't find it. It's behind a used car dealer and another hotel. Only a small driveway connects it to the road. When leaving, you can't actually see oncoming traffic because of the car lot fence so you kind of have to go and pray you don't get hit. When you walk in, the lobby isn't bad, but go up to the rooms (we were on the 3rd floor) and you are hit will the overwhelming smell of cigarette smoke. It smelled similar to how I invision the inside of a smoker's lungs. Remarkably our room didn't smell terrible (it didn't smell great either). I killed a cockroach in the hallway. There's no free breakfast. TVs are flat screen, but super old and the image was not HD. The cleaning service only comes once a week, which for most people means they never come. Needless to say, our trash was overflowing. We were there 4 nights.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1237172-r355760977-Candlewood_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>355760977</t>
+  </si>
+  <si>
+    <t>03/15/2016</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>We had a great stay. Clean and comfortable.  Friendly staff.  It is a bit hard to find as it is located towards the back but we liked it as there was no traffic noise. Even though I was next to the elevator, did not hear much. Will stay again. Good job Candlewood Staff!</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1237172-r327692994-Candlewood_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>327692994</t>
+  </si>
+  <si>
+    <t>11/18/2015</t>
+  </si>
+  <si>
+    <t>Comfortable place, friendly staff</t>
+  </si>
+  <si>
+    <t>Spent 10 days in a suite with 2 double beds. The beds were comfortable and the suite was big enough. It was set up well with a small kitchen area, dining table and closet space. All utensils that one would need for their stay were also provided. The reception staff were friendly and helpful especially Mr Patel. We particularly enjoyed the free laundry service and free wifi in the hotel. It was a good stay and would definitely return.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1237172-r326074766-Candlewood_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>326074766</t>
+  </si>
+  <si>
+    <t>11/11/2015</t>
+  </si>
+  <si>
+    <t>Great overnight or long-term stay</t>
+  </si>
+  <si>
+    <t>The Candlewood Suites Houston NW is a fairly new hotel that has very nice rooms and bathrooms.  Very clean.  Good location for shopping and restaurants.  Near Willowbrook Mall as well as many other shopping locations and movie theaters.  Great kitchen area in each room as well.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1237172-r219508683-Candlewood_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>219508683</t>
+  </si>
+  <si>
+    <t>08/04/2014</t>
+  </si>
+  <si>
+    <t>Clean hotel, friendly staff</t>
+  </si>
+  <si>
+    <t>Stayed here on business for a few nights.  The rooms are reasonably appointed and clean.Staff were always helpful and friendly.The hotel is a ways off the busy street that it's located on so traffic noise wasn't an issue.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1237172-r210493092-Candlewood_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>210493092</t>
+  </si>
+  <si>
+    <t>06/15/2014</t>
+  </si>
+  <si>
+    <t>Two week stay at this property</t>
+  </si>
+  <si>
+    <t>Stayed 2 weeks at this hotel on business, had to extend my trip another week and check out because hotel was sold out for my room type (checked into another IHG property).Hotel located on busy thoroughfare, with nearby building construction. Area is quiet though, and removed from the street. Hotel is clean, room was clean (housekeeping only cleans once per week if on extended stay), and very little noise transference from hallways, neighbors or outside into room. Nice setup with full kitchen facilities, to offset the typical breakfast that is missing from this property amenity list and also reflected in the lower room rates (lowest in area for similar properties). Possible to run A/C on constant to help block noise. When front desk staff were not concealed behind a partition most of the time, they were friendly and engaging. Hotel offers free use of washers and dryers, but expect a line of people especially on weekends, I had better luck taking my clothes to a nearby washateria (A&amp;A on Fallbrook-phenonemal wash/dry/fold bargain at $0.75/lb). Hotel is walking distance from a fast food restaurant, and a mile from upscale Willowbrook Mall and numerous fine dining options. I recommend this property for extended stays, for the value!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed 2 weeks at this hotel on business, had to extend my trip another week and check out because hotel was sold out for my room type (checked into another IHG property).Hotel located on busy thoroughfare, with nearby building construction. Area is quiet though, and removed from the street. Hotel is clean, room was clean (housekeeping only cleans once per week if on extended stay), and very little noise transference from hallways, neighbors or outside into room. Nice setup with full kitchen facilities, to offset the typical breakfast that is missing from this property amenity list and also reflected in the lower room rates (lowest in area for similar properties). Possible to run A/C on constant to help block noise. When front desk staff were not concealed behind a partition most of the time, they were friendly and engaging. Hotel offers free use of washers and dryers, but expect a line of people especially on weekends, I had better luck taking my clothes to a nearby washateria (A&amp;A on Fallbrook-phenonemal wash/dry/fold bargain at $0.75/lb). Hotel is walking distance from a fast food restaurant, and a mile from upscale Willowbrook Mall and numerous fine dining options. I recommend this property for extended stays, for the value!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1237172-r205655803-Candlewood_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>205655803</t>
+  </si>
+  <si>
+    <t>05/15/2014</t>
+  </si>
+  <si>
+    <t>Extended Stay Dream Come True</t>
+  </si>
+  <si>
+    <t>I had to be in Houston for two weeks on business. I was recommended a few hotels, including this one. From the moment I called to check on availability I was treated incredibly well. Great room, with kitchen, free washer and dryers in the hotel. Close to every place I needed to be. The staff at this hotel are extremely pleasant and helpful. If my company sends me back here I know there is no other hotel I would choose. THANKS</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1237172-r174013426-Candlewood_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>174013426</t>
+  </si>
+  <si>
+    <t>08/25/2013</t>
+  </si>
+  <si>
+    <t>Comfortable Stay!</t>
+  </si>
+  <si>
+    <t>The hotel was clean and the staff was friendly. The room was clean and had all of the amenities that would be necessary for a short or long term stay.The only negative thing that I experienced was the dirty sofa. It had stains all over it and needed cleaned. Other than that, the suite was clean. I would stay there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1237172-r163231197-Candlewood_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>163231197</t>
+  </si>
+  <si>
+    <t>06/06/2013</t>
+  </si>
+  <si>
+    <t>OK, but nothing above that.</t>
+  </si>
+  <si>
+    <t>Have stayed at many CS, and they have all been acceptable.  This hotel is different from the rest, and not in a good way. This is a three floor hotel.  Once you go forward, passing the front desk, the difference becomes apparent. There is no air conditioning in the halls and the two upper floors are even more stifling. Rooms have the proper temps, but the halls will make you sweat.  Couple that with the odor of microwaved pasta from rooms with the heat and you get a sense of the experience. The walls are paper thin...I had to hear everything said in the room next door....on TV, on phone, personal conversations.  Not by choice. Front desk was very gracious and accommodating.  I appreciated her kindness.  This brand (Candlewood Suites) is much better in other locations.  Here, it is just a cheap hotel with a brand name.  IHG should come for a site visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Houston NW - Willowbrook, responded to this reviewResponded June 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 22, 2013</t>
+  </si>
+  <si>
+    <t>Have stayed at many CS, and they have all been acceptable.  This hotel is different from the rest, and not in a good way. This is a three floor hotel.  Once you go forward, passing the front desk, the difference becomes apparent. There is no air conditioning in the halls and the two upper floors are even more stifling. Rooms have the proper temps, but the halls will make you sweat.  Couple that with the odor of microwaved pasta from rooms with the heat and you get a sense of the experience. The walls are paper thin...I had to hear everything said in the room next door....on TV, on phone, personal conversations.  Not by choice. Front desk was very gracious and accommodating.  I appreciated her kindness.  This brand (Candlewood Suites) is much better in other locations.  Here, it is just a cheap hotel with a brand name.  IHG should come for a site visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1237172-r162651234-Candlewood_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>162651234</t>
+  </si>
+  <si>
+    <t>06/01/2013</t>
+  </si>
+  <si>
+    <t>An unexpected gem!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We came here as part of a soccer tournament. I must admit I had very low expectations, but the staff so overwhelmed me with gracious service that I have say I'd try to stay here again if in the area!Kory and Jessica, in particular, deserve to be singled out for their competence and effort. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1237172-r147648798-Candlewood_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>147648798</t>
+  </si>
+  <si>
+    <t>12/17/2012</t>
+  </si>
+  <si>
+    <t>Clean and Pleasant</t>
+  </si>
+  <si>
+    <t>For a quick clean place to stay with all the comforts of home, this is a great choice.  Conveniently off the Tomball Freeway just north of the Sam Houston.  For 110 bucks it's a full kitchenette with a nice TV and good satellite line-up.  Willowbrook Mall very close and food galore within blocks.  2 blocks off FM1960 so all rooms very quiet.  Only negative is parking is tight.</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1237172-r131570639-Candlewood_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>131570639</t>
+  </si>
+  <si>
+    <t>06/08/2012</t>
+  </si>
+  <si>
+    <t>Good clean rooms and helpful staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stayed at this hotel one night this week while traveling for business. I did not have the opportunity to use any of the facilities at the hotel, so I can only comment on the room. The room was clean and comfortable, and everything worked as it should. One thing I noticed was the shower head, it is in need of replacement, it kept slipping and turning on its own after I moved it into the right position. The front desk personnel are very helpful and friendly when giving directions or advice. I will most likely stay here when in town again. </t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1237172-r130580989-Candlewood_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>130580989</t>
+  </si>
+  <si>
+    <t>05/25/2012</t>
+  </si>
+  <si>
+    <t>I recommend it</t>
+  </si>
+  <si>
+    <t>My wife relocated to the Houston area from Tyler without having a permanent address for a few months, a move like that is nerve wracking at best; however, our stress level was kept very low in large part because of this Candlewood Suites, the level of service at the hotel and all of the amenities that they offer.  You won't meet a nicer staff than those that work at this hotel.  If you're expecting the Ritz, you won't get it here; however, what you will find is a very comfortable place to stay in a great location (negative 1960 spot, getting out and in) with nearly all of the comforts of home - a fridge/freezer, microwave, coffee pot, plenty of storage, a very comfortable bed, a laundry facility and a little market that is run on the honor system. And there's a DVD player with a complimentary DVD library at the front desk. There's a guest laundry, decent gym, and a small store where you can buy basic essentials at ok prices. There's only one elevator and if you're not close to it, the stair well is the best answer - three floors - you don't need the gym. Of all the extended stays I've stayed at, I like Candlewood the best - they're part of Priority Club rewards with Holiday In, Radisson, etc. It's got great rates compared to similar properties. Water pressure and hot water were issues for...My wife relocated to the Houston area from Tyler without having a permanent address for a few months, a move like that is nerve wracking at best; however, our stress level was kept very low in large part because of this Candlewood Suites, the level of service at the hotel and all of the amenities that they offer.  You won't meet a nicer staff than those that work at this hotel.  If you're expecting the Ritz, you won't get it here; however, what you will find is a very comfortable place to stay in a great location (negative 1960 spot, getting out and in) with nearly all of the comforts of home - a fridge/freezer, microwave, coffee pot, plenty of storage, a very comfortable bed, a laundry facility and a little market that is run on the honor system. And there's a DVD player with a complimentary DVD library at the front desk. There's a guest laundry, decent gym, and a small store where you can buy basic essentials at ok prices. There's only one elevator and if you're not close to it, the stair well is the best answer - three floors - you don't need the gym. Of all the extended stays I've stayed at, I like Candlewood the best - they're part of Priority Club rewards with Holiday In, Radisson, etc. It's got great rates compared to similar properties. Water pressure and hot water were issues for me, but you'll order this place to others I promise. Oh! Free Wi-Fi, they have only 24 ports trying to run 48...slow in the evening when everyone's on.. That's the only down side. OH YEAH....They have customer day on Wednesdays 6-8 food, friends, it's a great time!!!! They have all you need down the strip, food, mall is all very close.  If you need a place to stay for an extended period of time and you need to be in or near Houston N/W, this is a great value!I recommend it!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>My wife relocated to the Houston area from Tyler without having a permanent address for a few months, a move like that is nerve wracking at best; however, our stress level was kept very low in large part because of this Candlewood Suites, the level of service at the hotel and all of the amenities that they offer.  You won't meet a nicer staff than those that work at this hotel.  If you're expecting the Ritz, you won't get it here; however, what you will find is a very comfortable place to stay in a great location (negative 1960 spot, getting out and in) with nearly all of the comforts of home - a fridge/freezer, microwave, coffee pot, plenty of storage, a very comfortable bed, a laundry facility and a little market that is run on the honor system. And there's a DVD player with a complimentary DVD library at the front desk. There's a guest laundry, decent gym, and a small store where you can buy basic essentials at ok prices. There's only one elevator and if you're not close to it, the stair well is the best answer - three floors - you don't need the gym. Of all the extended stays I've stayed at, I like Candlewood the best - they're part of Priority Club rewards with Holiday In, Radisson, etc. It's got great rates compared to similar properties. Water pressure and hot water were issues for...My wife relocated to the Houston area from Tyler without having a permanent address for a few months, a move like that is nerve wracking at best; however, our stress level was kept very low in large part because of this Candlewood Suites, the level of service at the hotel and all of the amenities that they offer.  You won't meet a nicer staff than those that work at this hotel.  If you're expecting the Ritz, you won't get it here; however, what you will find is a very comfortable place to stay in a great location (negative 1960 spot, getting out and in) with nearly all of the comforts of home - a fridge/freezer, microwave, coffee pot, plenty of storage, a very comfortable bed, a laundry facility and a little market that is run on the honor system. And there's a DVD player with a complimentary DVD library at the front desk. There's a guest laundry, decent gym, and a small store where you can buy basic essentials at ok prices. There's only one elevator and if you're not close to it, the stair well is the best answer - three floors - you don't need the gym. Of all the extended stays I've stayed at, I like Candlewood the best - they're part of Priority Club rewards with Holiday In, Radisson, etc. It's got great rates compared to similar properties. Water pressure and hot water were issues for me, but you'll order this place to others I promise. Oh! Free Wi-Fi, they have only 24 ports trying to run 48...slow in the evening when everyone's on.. That's the only down side. OH YEAH....They have customer day on Wednesdays 6-8 food, friends, it's a great time!!!! They have all you need down the strip, food, mall is all very close.  If you need a place to stay for an extended period of time and you need to be in or near Houston N/W, this is a great value!I recommend it!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1237172-r127801764-Candlewood_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>127801764</t>
+  </si>
+  <si>
+    <t>04/13/2012</t>
+  </si>
+  <si>
+    <t>business trip to houston</t>
+  </si>
+  <si>
+    <t>great hotel with plenty of amenities including store,laundry services, nice pool and patio area. definitely a great bargain.</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1237172-r126883343-Candlewood_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>126883343</t>
+  </si>
+  <si>
+    <t>03/28/2012</t>
+  </si>
+  <si>
+    <t>Great stay.</t>
+  </si>
+  <si>
+    <t>Very friendly staff.(Morning, afternoon, nights and middle of night). Loved my stay especially wednesday evening dinner for the guest. MoreShow less</t>
+  </si>
+  <si>
+    <t>MsSuitePeach, VP Sales &amp; Marketing at Candlewood Suites Houston NW - Willowbrook, responded to this reviewResponded March 30, 2012</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2012</t>
+  </si>
+  <si>
+    <t>Very friendly staff.(Morning, afternoon, nights and middle of night). Loved my stay especially wednesday evening dinner for the guest. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1237172-r120646719-Candlewood_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>120646719</t>
+  </si>
+  <si>
+    <t>11/15/2011</t>
+  </si>
+  <si>
+    <t>Great place to stay!!!!  They have all the extras!</t>
+  </si>
+  <si>
+    <t>From the front desk staff to the maid service they are professional.  The rooms are very clean.  They have security.  This is a place you can stay with safety and comfort.  There is a driver that will take you places if you like.  The beds are perfect.  I have stayed a many, many, many hotels and such but this is one of the best.  They have a little store on site along with free washers and dryers on site.  They even have movies you can check out free.  All of the staff seem to be willing to do what needs to be done, without even being asked.  Great job by all.  The owners should be proud.A++++++MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>MsSuitePeach, Guest Relations Manager at Candlewood Suites Houston NW - Willowbrook, responded to this reviewResponded November 17, 2011</t>
+  </si>
+  <si>
+    <t>Responded November 17, 2011</t>
+  </si>
+  <si>
+    <t>From the front desk staff to the maid service they are professional.  The rooms are very clean.  They have security.  This is a place you can stay with safety and comfort.  There is a driver that will take you places if you like.  The beds are perfect.  I have stayed a many, many, many hotels and such but this is one of the best.  They have a little store on site along with free washers and dryers on site.  They even have movies you can check out free.  All of the staff seem to be willing to do what needs to be done, without even being asked.  Great job by all.  The owners should be proud.A++++++More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1237172-r98823964-Candlewood_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>98823964</t>
+  </si>
+  <si>
+    <t>03/03/2011</t>
+  </si>
+  <si>
+    <t>Perfect</t>
+  </si>
+  <si>
+    <t>After a long haul flight and short drive along FM 1960 (thereby avoiding tolls) found this hotel a great place for a good nights sleep. Clean, quiet and a very friendly reception.</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1237172-r78969165-Candlewood_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>78969165</t>
+  </si>
+  <si>
+    <t>09/09/2010</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>An excellent hotel,everything was perfect,the rooms were first class(hardwood floors,black appliances,comfy beds) and the staff was just as great,especially Raymond.On a scale of 1-10,definitely a 10.MoreShow less</t>
+  </si>
+  <si>
+    <t>Chilly1280, General Manager at Candlewood Suites Houston NW - Willowbrook, responded to this reviewResponded July 23, 2011</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2011</t>
+  </si>
+  <si>
+    <t>An excellent hotel,everything was perfect,the rooms were first class(hardwood floors,black appliances,comfy beds) and the staff was just as great,especially Raymond.On a scale of 1-10,definitely a 10.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1237172-r75780114-Candlewood_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>75780114</t>
+  </si>
+  <si>
+    <t>08/18/2010</t>
+  </si>
+  <si>
+    <t>Friendly staff, location's great, they cater to their guests, and cheaper than other places but have more to offer.</t>
+  </si>
+  <si>
+    <t>Chris was a star. He was very helpful and full of information! All the other staff members were also friendly and courtous. They even offer dry cleaning! Impressed that they are cheaper than "wydham" on mills but newer with way more to offer. The room is spacious and clean. Free DVD rentals, flat screen tvs, wifi, and they are having a pool party tonight w free food and drinks. This place is all about the customer. The only "cons" would be the coffee wasn't good. It's a weird brand and I'm a coffee gal, so maybe stick w folgers ;-) and I wish the beds were bigger. They were still comfy tho and the comforters were classy. I will definitely come back and refer my friends. Overall I'm very impressed. For this price range, this is the place to stay. We were there for 4 days.MoreShow less</t>
+  </si>
+  <si>
+    <t>Chris was a star. He was very helpful and full of information! All the other staff members were also friendly and courtous. They even offer dry cleaning! Impressed that they are cheaper than "wydham" on mills but newer with way more to offer. The room is spacious and clean. Free DVD rentals, flat screen tvs, wifi, and they are having a pool party tonight w free food and drinks. This place is all about the customer. The only "cons" would be the coffee wasn't good. It's a weird brand and I'm a coffee gal, so maybe stick w folgers ;-) and I wish the beds were bigger. They were still comfy tho and the comforters were classy. I will definitely come back and refer my friends. Overall I'm very impressed. For this price range, this is the place to stay. We were there for 4 days.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +988,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1020,1432 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>59936</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>59936</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>59936</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
+        <v>72</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>2</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>59936</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>59936</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>87</v>
+      </c>
+      <c r="O6" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>59936</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>93</v>
+      </c>
+      <c r="O7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>59936</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>59936</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L9" t="s">
+        <v>105</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>100</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>59936</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10" t="s">
+        <v>110</v>
+      </c>
+      <c r="L10" t="s">
+        <v>111</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>59936</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" t="s">
+        <v>116</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>59936</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>118</v>
+      </c>
+      <c r="J12" t="s">
+        <v>119</v>
+      </c>
+      <c r="K12" t="s">
+        <v>120</v>
+      </c>
+      <c r="L12" t="s">
+        <v>121</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>122</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>123</v>
+      </c>
+      <c r="X12" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>59936</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>127</v>
+      </c>
+      <c r="J13" t="s">
+        <v>128</v>
+      </c>
+      <c r="K13" t="s">
+        <v>129</v>
+      </c>
+      <c r="L13" t="s">
+        <v>130</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>59936</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>132</v>
+      </c>
+      <c r="J14" t="s">
+        <v>133</v>
+      </c>
+      <c r="K14" t="s">
+        <v>134</v>
+      </c>
+      <c r="L14" t="s">
+        <v>135</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>136</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>59936</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>138</v>
+      </c>
+      <c r="J15" t="s">
+        <v>139</v>
+      </c>
+      <c r="K15" t="s">
+        <v>140</v>
+      </c>
+      <c r="L15" t="s">
+        <v>141</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>142</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>59936</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>144</v>
+      </c>
+      <c r="J16" t="s">
+        <v>145</v>
+      </c>
+      <c r="K16" t="s">
+        <v>146</v>
+      </c>
+      <c r="L16" t="s">
+        <v>147</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>148</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>59936</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>150</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>151</v>
+      </c>
+      <c r="J17" t="s">
+        <v>152</v>
+      </c>
+      <c r="K17" t="s">
+        <v>153</v>
+      </c>
+      <c r="L17" t="s">
+        <v>154</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>155</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>59936</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>156</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>157</v>
+      </c>
+      <c r="J18" t="s">
+        <v>158</v>
+      </c>
+      <c r="K18" t="s">
+        <v>159</v>
+      </c>
+      <c r="L18" t="s">
+        <v>160</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>161</v>
+      </c>
+      <c r="X18" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>59936</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>164</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>165</v>
+      </c>
+      <c r="J19" t="s">
+        <v>166</v>
+      </c>
+      <c r="K19" t="s">
+        <v>167</v>
+      </c>
+      <c r="L19" t="s">
+        <v>168</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>169</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>170</v>
+      </c>
+      <c r="X19" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>59936</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>173</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>174</v>
+      </c>
+      <c r="J20" t="s">
+        <v>175</v>
+      </c>
+      <c r="K20" t="s">
+        <v>176</v>
+      </c>
+      <c r="L20" t="s">
+        <v>177</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>178</v>
+      </c>
+      <c r="O20" t="s">
+        <v>72</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>59936</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>179</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>180</v>
+      </c>
+      <c r="J21" t="s">
+        <v>181</v>
+      </c>
+      <c r="K21" t="s">
+        <v>182</v>
+      </c>
+      <c r="L21" t="s">
+        <v>183</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>184</v>
+      </c>
+      <c r="X21" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>59936</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>187</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>188</v>
+      </c>
+      <c r="J22" t="s">
+        <v>189</v>
+      </c>
+      <c r="K22" t="s">
+        <v>190</v>
+      </c>
+      <c r="L22" t="s">
+        <v>191</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>184</v>
+      </c>
+      <c r="X22" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_72.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_72.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="286">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,63 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/06/2018</t>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1237172-r559588596-Candlewood_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>1237172</t>
+  </si>
+  <si>
+    <t>559588596</t>
+  </si>
+  <si>
+    <t>02/10/2018</t>
+  </si>
+  <si>
+    <t>Very nice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It’s a nice hotel. Tucked behind another older hotel....definitely shows it’s age but it was clean. Staff was friendly.  Not in a bad spot but not really any restaurants nearby or within walking distance. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1237172-r522561326-Candlewood_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>522561326</t>
+  </si>
+  <si>
+    <t>09/08/2017</t>
+  </si>
+  <si>
+    <t>Hurricane Harvey</t>
+  </si>
+  <si>
+    <t>Needed a place to stay close to work so as  staffing would not be an issue. Candlewood did not disappoint! The staff was very friendly and accomodating, especially front desk guy in morning (tall, slim, with glasses). Room was clean and weddings were comfortable. When water became an issue, they waived pet fees and restrictions for all who sought shelter from Harvey. Love the free laundry machines too! Would definitely stay there again  It was my home away from home for a week!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Sam P, General Manager at Candlewood Suites Houston NW - Willowbrook, responded to this reviewResponded September 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 19, 2017</t>
+  </si>
+  <si>
+    <t>Needed a place to stay close to work so as  staffing would not be an issue. Candlewood did not disappoint! The staff was very friendly and accomodating, especially front desk guy in morning (tall, slim, with glasses). Room was clean and weddings were comfortable. When water became an issue, they waived pet fees and restrictions for all who sought shelter from Harvey. Love the free laundry machines too! Would definitely stay there again  It was my home away from home for a week!!!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1237172-r559069548-Candlewood_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>1237172</t>
-  </si>
-  <si>
     <t>559069548</t>
   </si>
   <si>
@@ -246,6 +291,42 @@
     <t>The first impression is bad. It's located in a bad area. Unless you know exactly where it is, you won't find it. It's behind a used car dealer and another hotel. Only a small driveway connects it to the road. When leaving, you can't actually see oncoming traffic because of the car lot fence so you kind of have to go and pray you don't get hit. When you walk in, the lobby isn't bad, but go up to the rooms (we were on the 3rd floor) and you are hit will the overwhelming smell of cigarette smoke. It smelled similar to how I invision the inside of a smoker's lungs. Remarkably our room didn't smell terrible (it didn't smell great either). I killed a cockroach in the hallway. There's no free breakfast. TVs are flat screen, but super old and the image was not HD. The cleaning service only comes once a week, which for most people means they never come. Needless to say, our trash was overflowing. We were there 4 nights.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1237172-r394530527-Candlewood_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>394530527</t>
+  </si>
+  <si>
+    <t>07/19/2016</t>
+  </si>
+  <si>
+    <t>Would go back</t>
+  </si>
+  <si>
+    <t>My only regret is that I got in too late and had to leave too early.Very nice room with full size fridge, dishwasher and cooktop complete with dishes, cookware, silverware, etc.The young lady working at the front desk when I checked in was very friendly and went out of her way to help me. Big A+ for that.The only negative for me, and this is really no fault of the hotel, is that there is only one place within walking distance to get something to eat and it's fast food.  If you've got wheels or don't mind grabbing an über then you will have no worries at this hotel.Word to the wise, it is kind of tucked in behind some other hotels; kind of easy to miss the first time.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>My only regret is that I got in too late and had to leave too early.Very nice room with full size fridge, dishwasher and cooktop complete with dishes, cookware, silverware, etc.The young lady working at the front desk when I checked in was very friendly and went out of her way to help me. Big A+ for that.The only negative for me, and this is really no fault of the hotel, is that there is only one place within walking distance to get something to eat and it's fast food.  If you've got wheels or don't mind grabbing an über then you will have no worries at this hotel.Word to the wise, it is kind of tucked in behind some other hotels; kind of easy to miss the first time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1237172-r384780592-Candlewood_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>384780592</t>
+  </si>
+  <si>
+    <t>06/21/2016</t>
+  </si>
+  <si>
+    <t>Great Place To Get Away</t>
+  </si>
+  <si>
+    <t>Very nice and clean rooms,guest service is wonderful.A good place to get away for peace and quiet!! Big rooms with lots of space.Nice clean pool and BBQ area.Would be back when I need to get away again.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1237172-r355760977-Candlewood_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -303,6 +384,42 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1237172-r324712084-Candlewood_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>324712084</t>
+  </si>
+  <si>
+    <t>11/05/2015</t>
+  </si>
+  <si>
+    <t>Homely Environment</t>
+  </si>
+  <si>
+    <t>The rooms are quite spacious with all needed amenities in the kitchen including a full size fridge and dishwasher that can take away the tire of travel and make us feel at home at the same time enjoy a good vacation.Another advantage is the Candlewood cupboard, the borrowing closet and the free laundry facilities that can make travel economical as well.During our 20 day stay we enjoyed the luxury of a hotel and the comfort of a home at a good affordable price. The staff is friendly and we just loved the complimentary coffee and pop corn after a busy day.The not so good side of the place is the swimming pool that is not large or deep to enjoy swimming and its Gym does lack the Sauna which is helpful to relax at times. House keeping is weekly which needs to be more frequent after all one does need to be free from making the bed and such chores while on vacation. MoreShow less</t>
+  </si>
+  <si>
+    <t>The rooms are quite spacious with all needed amenities in the kitchen including a full size fridge and dishwasher that can take away the tire of travel and make us feel at home at the same time enjoy a good vacation.Another advantage is the Candlewood cupboard, the borrowing closet and the free laundry facilities that can make travel economical as well.During our 20 day stay we enjoyed the luxury of a hotel and the comfort of a home at a good affordable price. The staff is friendly and we just loved the complimentary coffee and pop corn after a busy day.The not so good side of the place is the swimming pool that is not large or deep to enjoy swimming and its Gym does lack the Sauna which is helpful to relax at times. House keeping is weekly which needs to be more frequent after all one does need to be free from making the bed and such chores while on vacation. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1237172-r230515823-Candlewood_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>230515823</t>
+  </si>
+  <si>
+    <t>09/23/2014</t>
+  </si>
+  <si>
+    <t>All fives for this place</t>
+  </si>
+  <si>
+    <t>Stayed here for few weeks during September. Found this place to be perfect. It had a clean room, comfortable bed, nice kitchen, free laundry room, nice gym, clean outdoor pool. Supermarket and the mall are close so breakfast supplies were close. Cleaning comes once a week, but the staff is super helpful if you need anything. Price was good too. So, next time I'm in Houston, I know where I'll stay.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1237172-r219508683-Candlewood_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -354,6 +471,45 @@
     <t>I had to be in Houston for two weeks on business. I was recommended a few hotels, including this one. From the moment I called to check on availability I was treated incredibly well. Great room, with kitchen, free washer and dryers in the hotel. Close to every place I needed to be. The staff at this hotel are extremely pleasant and helpful. If my company sends me back here I know there is no other hotel I would choose. THANKS</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1237172-r199320499-Candlewood_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>199320499</t>
+  </si>
+  <si>
+    <t>03/30/2014</t>
+  </si>
+  <si>
+    <t>Just ok for short fire damage stay</t>
+  </si>
+  <si>
+    <t>We had a small electrical fire in our home and was put up for 6 nights at Candlewood Suites-Willowbrook while repairs were being done.  The room was comfortable, but a little small for 2 people, I thought. We are used to a king sized bed and we were given a queen bed, but that was probably not the fault of the hotel.  The bed itself was a pillow-top which was very comfortable,but way too close to the wall on one side with no bedside table for that side of the bed.  There was a table for 2 with 2 chairs (1 dining chair and 1 office chair). There was a kitchenette with a microwave, 2 burners (no oven), coffeemaker, dishwasher, sink and a Full sized fridge with an ice maker.  I also liked the option of choosing between smoking or non. We were in a smoking room with no burn marks on carpet or anywhere.  The bathroom was big enough, but not huge or anything.  The water pressure was not very good and took forever to get very warm and if you like HOT showers this might not be the best choice for you.  The only other complaint I have is the carpet.  Our room was half wood floors and half carpet.  I was walking around in clean white socks and 30 minutes later they were BLACK on the bottom.  That was just GROSS.  From then on out I refused...We had a small electrical fire in our home and was put up for 6 nights at Candlewood Suites-Willowbrook while repairs were being done.  The room was comfortable, but a little small for 2 people, I thought. We are used to a king sized bed and we were given a queen bed, but that was probably not the fault of the hotel.  The bed itself was a pillow-top which was very comfortable,but way too close to the wall on one side with no bedside table for that side of the bed.  There was a table for 2 with 2 chairs (1 dining chair and 1 office chair). There was a kitchenette with a microwave, 2 burners (no oven), coffeemaker, dishwasher, sink and a Full sized fridge with an ice maker.  I also liked the option of choosing between smoking or non. We were in a smoking room with no burn marks on carpet or anywhere.  The bathroom was big enough, but not huge or anything.  The water pressure was not very good and took forever to get very warm and if you like HOT showers this might not be the best choice for you.  The only other complaint I have is the carpet.  Our room was half wood floors and half carpet.  I was walking around in clean white socks and 30 minutes later they were BLACK on the bottom.  That was just GROSS.  From then on out I refused to walk on the floor without shoes or socks.   So if anyone from Candlewood Suites should read this please shampoo your carpets.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>We had a small electrical fire in our home and was put up for 6 nights at Candlewood Suites-Willowbrook while repairs were being done.  The room was comfortable, but a little small for 2 people, I thought. We are used to a king sized bed and we were given a queen bed, but that was probably not the fault of the hotel.  The bed itself was a pillow-top which was very comfortable,but way too close to the wall on one side with no bedside table for that side of the bed.  There was a table for 2 with 2 chairs (1 dining chair and 1 office chair). There was a kitchenette with a microwave, 2 burners (no oven), coffeemaker, dishwasher, sink and a Full sized fridge with an ice maker.  I also liked the option of choosing between smoking or non. We were in a smoking room with no burn marks on carpet or anywhere.  The bathroom was big enough, but not huge or anything.  The water pressure was not very good and took forever to get very warm and if you like HOT showers this might not be the best choice for you.  The only other complaint I have is the carpet.  Our room was half wood floors and half carpet.  I was walking around in clean white socks and 30 minutes later they were BLACK on the bottom.  That was just GROSS.  From then on out I refused...We had a small electrical fire in our home and was put up for 6 nights at Candlewood Suites-Willowbrook while repairs were being done.  The room was comfortable, but a little small for 2 people, I thought. We are used to a king sized bed and we were given a queen bed, but that was probably not the fault of the hotel.  The bed itself was a pillow-top which was very comfortable,but way too close to the wall on one side with no bedside table for that side of the bed.  There was a table for 2 with 2 chairs (1 dining chair and 1 office chair). There was a kitchenette with a microwave, 2 burners (no oven), coffeemaker, dishwasher, sink and a Full sized fridge with an ice maker.  I also liked the option of choosing between smoking or non. We were in a smoking room with no burn marks on carpet or anywhere.  The bathroom was big enough, but not huge or anything.  The water pressure was not very good and took forever to get very warm and if you like HOT showers this might not be the best choice for you.  The only other complaint I have is the carpet.  Our room was half wood floors and half carpet.  I was walking around in clean white socks and 30 minutes later they were BLACK on the bottom.  That was just GROSS.  From then on out I refused to walk on the floor without shoes or socks.   So if anyone from Candlewood Suites should read this please shampoo your carpets.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1237172-r183930779-Candlewood_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>183930779</t>
+  </si>
+  <si>
+    <t>11/07/2013</t>
+  </si>
+  <si>
+    <t>Nice Hotel!!</t>
+  </si>
+  <si>
+    <t>Staff was friendly, hotel and room very clean. Room and bathroom were spacious. Bed was comfortable. We liked the full size fridge in the room. Only complaint was that you can hear people in the halls. We would stay here again.</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1237172-r174013426-Candlewood_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -411,6 +567,39 @@
     <t xml:space="preserve">We came here as part of a soccer tournament. I must admit I had very low expectations, but the staff so overwhelmed me with gracious service that I have say I'd try to stay here again if in the area!Kory and Jessica, in particular, deserve to be singled out for their competence and effort. </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1237172-r157688423-Candlewood_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>157688423</t>
+  </si>
+  <si>
+    <t>04/14/2013</t>
+  </si>
+  <si>
+    <t>I have stayed at quite a few Candlewood Suites and this one is second to none. The staff is very helpful and friendly and the cleaning staff is the best I've seen at any hotel I've stayed at! It's location offers great restaurants and plenty of shopping in the area. I would recommend this hotel to anyone staying in Houston.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1237172-r150932735-Candlewood_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>150932735</t>
+  </si>
+  <si>
+    <t>01/29/2013</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t>We stayed here at the last minute since we wanted to be near a mall for some last minute shopping before catching a flight out of IAH the next day.  The rooms we had were spacious and homey as well as spotlessly clean and in good condition.  Everything about this place seemed to be clean and well kept.  It was a steal at $81 per night and just down the road there were many excellent restaurant choices.</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1237172-r147648798-Candlewood_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -468,6 +657,39 @@
     <t>My wife relocated to the Houston area from Tyler without having a permanent address for a few months, a move like that is nerve wracking at best; however, our stress level was kept very low in large part because of this Candlewood Suites, the level of service at the hotel and all of the amenities that they offer.  You won't meet a nicer staff than those that work at this hotel.  If you're expecting the Ritz, you won't get it here; however, what you will find is a very comfortable place to stay in a great location (negative 1960 spot, getting out and in) with nearly all of the comforts of home - a fridge/freezer, microwave, coffee pot, plenty of storage, a very comfortable bed, a laundry facility and a little market that is run on the honor system. And there's a DVD player with a complimentary DVD library at the front desk. There's a guest laundry, decent gym, and a small store where you can buy basic essentials at ok prices. There's only one elevator and if you're not close to it, the stair well is the best answer - three floors - you don't need the gym. Of all the extended stays I've stayed at, I like Candlewood the best - they're part of Priority Club rewards with Holiday In, Radisson, etc. It's got great rates compared to similar properties. Water pressure and hot water were issues for...My wife relocated to the Houston area from Tyler without having a permanent address for a few months, a move like that is nerve wracking at best; however, our stress level was kept very low in large part because of this Candlewood Suites, the level of service at the hotel and all of the amenities that they offer.  You won't meet a nicer staff than those that work at this hotel.  If you're expecting the Ritz, you won't get it here; however, what you will find is a very comfortable place to stay in a great location (negative 1960 spot, getting out and in) with nearly all of the comforts of home - a fridge/freezer, microwave, coffee pot, plenty of storage, a very comfortable bed, a laundry facility and a little market that is run on the honor system. And there's a DVD player with a complimentary DVD library at the front desk. There's a guest laundry, decent gym, and a small store where you can buy basic essentials at ok prices. There's only one elevator and if you're not close to it, the stair well is the best answer - three floors - you don't need the gym. Of all the extended stays I've stayed at, I like Candlewood the best - they're part of Priority Club rewards with Holiday In, Radisson, etc. It's got great rates compared to similar properties. Water pressure and hot water were issues for me, but you'll order this place to others I promise. Oh! Free Wi-Fi, they have only 24 ports trying to run 48...slow in the evening when everyone's on.. That's the only down side. OH YEAH....They have customer day on Wednesdays 6-8 food, friends, it's a great time!!!! They have all you need down the strip, food, mall is all very close.  If you need a place to stay for an extended period of time and you need to be in or near Houston N/W, this is a great value!I recommend it!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1237172-r130161345-Candlewood_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>130161345</t>
+  </si>
+  <si>
+    <t>05/18/2012</t>
+  </si>
+  <si>
+    <t>Comfortable</t>
+  </si>
+  <si>
+    <t>I stayed here for only one night, so it is only fair for me to comment on the room. The room is spacious and clean. Plenty of parking space. One thing that they can probably add is breakfast like how Towneplace Suite and Comfort Inn have.</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1237172-r129401968-Candlewood_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>129401968</t>
+  </si>
+  <si>
+    <t>05/05/2012</t>
+  </si>
+  <si>
+    <t>A very good Candlewood Hotel</t>
+  </si>
+  <si>
+    <t>Stayed here recently when I had some time off in Houston after a Conference. Hotel is well situated in NW Houston. Plenty of parking, clean well maintained rooms, friendly and efficient staff, good gym, pool, laundry and well stocked self-serve shop. Rooms are large with a seperate lounge and kitchen area. Bed was comfortabel and being a Candlewood rate is reasonable. Overall the best Candlewood I have stayed at. Would definitely stay here again.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1237172-r127801764-Candlewood_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -483,9 +705,6 @@
     <t>great hotel with plenty of amenities including store,laundry services, nice pool and patio area. definitely a great bargain.</t>
   </si>
   <si>
-    <t>April 2012</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1237172-r126883343-Candlewood_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -537,6 +756,51 @@
     <t>From the front desk staff to the maid service they are professional.  The rooms are very clean.  They have security.  This is a place you can stay with safety and comfort.  There is a driver that will take you places if you like.  The beds are perfect.  I have stayed a many, many, many hotels and such but this is one of the best.  They have a little store on site along with free washers and dryers on site.  They even have movies you can check out free.  All of the staff seem to be willing to do what needs to be done, without even being asked.  Great job by all.  The owners should be proud.A++++++More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1237172-r117760410-Candlewood_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>117760410</t>
+  </si>
+  <si>
+    <t>09/06/2011</t>
+  </si>
+  <si>
+    <t>Excellent place to stay</t>
+  </si>
+  <si>
+    <t>We stayed at the Candlewood Suites in Houston at Willowbrook for extended stay. We are relocating and our house is not complete. Everyone was absolutely awesome! The facilities are immaculate. There are many extras...such as a workout room, free laundry room service, weekly maid service, and much more. I really felt like I made myself at home there and did not want to leave. The staff understands good customer service. I highly recommend this facility. I am a marriot girl. But from now on, when I am in this area, I will stay at this hotel! sm&amp;tm</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1237172-r115622943-Candlewood_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>115622943</t>
+  </si>
+  <si>
+    <t>07/21/2011</t>
+  </si>
+  <si>
+    <t>Excellent for extended stay!</t>
+  </si>
+  <si>
+    <t>Stayed here for a week to attend some business in Houston.  Good location and lots of ammenities around the area. Room was wonderful and spacious! Loved the leather couch and recliner! Kitchen was just what I needed for cooking something if I didnt feel like eating out.  Bed was comfortable and they had a wide variety of pillow options.  The candlewood cubboard was handy for a late night snack! Room is only cleaned if you ask for it daily.  If not its cleaned once a week.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>Chilly1280, General Manager at Candlewood Suites Houston NW - Willowbrook, responded to this reviewResponded July 23, 2011</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2011</t>
+  </si>
+  <si>
+    <t>Stayed here for a week to attend some business in Houston.  Good location and lots of ammenities around the area. Room was wonderful and spacious! Loved the leather couch and recliner! Kitchen was just what I needed for cooking something if I didnt feel like eating out.  Bed was comfortable and they had a wide variety of pillow options.  The candlewood cubboard was handy for a late night snack! Room is only cleaned if you ask for it daily.  If not its cleaned once a week.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1237172-r98823964-Candlewood_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -570,12 +834,6 @@
     <t>An excellent hotel,everything was perfect,the rooms were first class(hardwood floors,black appliances,comfy beds) and the staff was just as great,especially Raymond.On a scale of 1-10,definitely a 10.MoreShow less</t>
   </si>
   <si>
-    <t>Chilly1280, General Manager at Candlewood Suites Houston NW - Willowbrook, responded to this reviewResponded July 23, 2011</t>
-  </si>
-  <si>
-    <t>Responded July 23, 2011</t>
-  </si>
-  <si>
     <t>An excellent hotel,everything was perfect,the rooms were first class(hardwood floors,black appliances,comfy beds) and the staff was just as great,especially Raymond.On a scale of 1-10,definitely a 10.More</t>
   </si>
   <si>
@@ -595,6 +853,27 @@
   </si>
   <si>
     <t>Chris was a star. He was very helpful and full of information! All the other staff members were also friendly and courtous. They even offer dry cleaning! Impressed that they are cheaper than "wydham" on mills but newer with way more to offer. The room is spacious and clean. Free DVD rentals, flat screen tvs, wifi, and they are having a pool party tonight w free food and drinks. This place is all about the customer. The only "cons" would be the coffee wasn't good. It's a weird brand and I'm a coffee gal, so maybe stick w folgers ;-) and I wish the beds were bigger. They were still comfy tho and the comforters were classy. I will definitely come back and refer my friends. Overall I'm very impressed. For this price range, this is the place to stay. We were there for 4 days.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1237172-r57760116-Candlewood_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>57760116</t>
+  </si>
+  <si>
+    <t>03/04/2010</t>
+  </si>
+  <si>
+    <t>Absolutely first-class staff.</t>
+  </si>
+  <si>
+    <t>Friendliest hotel staff I have seen since the Sheffield Alabama Holiday Inn. The newly-improved Candlewood concept is miles above what Candlewoods once were, but still... the company should fly management teams in from other Candlewoods around the country to see how to do it right. I actually suggested to the front desk clerk that a spotlight outside hits drivers in the eye as they approach at night. Do you know what he did? He actually made a note of it, reported it to their facility team, and when he saw me the next evening, without prompting, he assured me that the facilities team had received the message and would act on it. I was gobsmacked. This is the only place to stay in NW Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>Friendliest hotel staff I have seen since the Sheffield Alabama Holiday Inn. The newly-improved Candlewood concept is miles above what Candlewoods once were, but still... the company should fly management teams in from other Candlewoods around the country to see how to do it right. I actually suggested to the front desk clerk that a spotlight outside hits drivers in the eye as they approach at night. Do you know what he did? He actually made a note of it, reported it to their facility team, and when he saw me the next evening, without prompting, he assured me that the facilities team had received the message and would act on it. I was gobsmacked. This is the only place to stay in NW Houston.More</t>
   </si>
 </sst>
 </file>
@@ -1131,12 +1410,8 @@
       <c r="M2" t="n">
         <v>4</v>
       </c>
-      <c r="N2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
@@ -1146,14 +1421,10 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X2" t="s">
-        <v>55</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -1169,7 +1440,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -1178,25 +1449,25 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O3" t="s">
         <v>58</v>
-      </c>
-      <c r="J3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>62</v>
-      </c>
-      <c r="O3" t="s">
-        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1208,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
@@ -1230,7 +1501,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1239,47 +1510,43 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
         <v>67</v>
       </c>
-      <c r="J4" t="s">
+      <c r="O4" t="s">
         <v>68</v>
-      </c>
-      <c r="K4" t="s">
-        <v>69</v>
-      </c>
-      <c r="L4" t="s">
-        <v>70</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2</v>
-      </c>
-      <c r="N4" t="s">
-        <v>71</v>
-      </c>
-      <c r="O4" t="s">
-        <v>72</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="n">
-        <v>2</v>
-      </c>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>3</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="X4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
@@ -1295,7 +1562,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1304,43 +1571,41 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
         <v>77</v>
       </c>
-      <c r="J5" t="s">
-        <v>78</v>
-      </c>
-      <c r="K5" t="s">
-        <v>79</v>
-      </c>
-      <c r="L5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="s">
-        <v>81</v>
-      </c>
       <c r="O5" t="s">
-        <v>72</v>
-      </c>
-      <c r="P5" t="n">
-        <v>5</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
-      <c r="R5" t="n">
-        <v>4</v>
-      </c>
+      <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
+      <c r="W5" t="s">
+        <v>78</v>
+      </c>
+      <c r="X5" t="s">
+        <v>79</v>
+      </c>
       <c r="Y5" t="s">
         <v>80</v>
       </c>
@@ -1358,7 +1623,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1367,39 +1632,47 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
         <v>83</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>84</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>85</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
         <v>86</v>
       </c>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>87</v>
-      </c>
-      <c r="O6" t="s">
-        <v>72</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
+      <c r="S6" t="n">
+        <v>2</v>
+      </c>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
+      <c r="W6" t="s">
+        <v>88</v>
+      </c>
+      <c r="X6" t="s">
+        <v>89</v>
+      </c>
       <c r="Y6" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
@@ -1415,7 +1688,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1424,45 +1697,39 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O7" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="n">
-        <v>5</v>
-      </c>
-      <c r="R7" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>5</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
@@ -1478,7 +1745,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1487,43 +1754,35 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K8" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
-      </c>
-      <c r="N8" t="s">
-        <v>100</v>
-      </c>
-      <c r="O8" t="s">
-        <v>53</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
-      <c r="R8" t="n">
-        <v>4</v>
-      </c>
+      <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>5</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
@@ -1539,7 +1798,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1548,41 +1807,37 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
       </c>
-      <c r="Q9" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q9" t="s"/>
       <c r="R9" t="n">
         <v>4</v>
       </c>
-      <c r="S9" t="n">
-        <v>4</v>
-      </c>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1590,7 +1845,7 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10">
@@ -1606,7 +1861,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1615,45 +1870,39 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L10" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s"/>
-      <c r="O10" t="s"/>
-      <c r="P10" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>5</v>
-      </c>
-      <c r="R10" t="n">
-        <v>3</v>
-      </c>
-      <c r="S10" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>114</v>
+      </c>
+      <c r="O10" t="s">
+        <v>87</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11">
@@ -1669,7 +1918,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -1678,37 +1927,37 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J11" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K11" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L11" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
-      </c>
-      <c r="N11" t="s"/>
-      <c r="O11" t="s"/>
-      <c r="P11" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>120</v>
+      </c>
+      <c r="O11" t="s">
+        <v>121</v>
+      </c>
+      <c r="P11" t="s"/>
       <c r="Q11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R11" t="n">
-        <v>4</v>
-      </c>
-      <c r="S11" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1716,7 +1965,7 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12">
@@ -1732,7 +1981,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -1741,53 +1990,39 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="J12" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="K12" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="L12" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="M12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2</v>
-      </c>
-      <c r="S12" t="n">
-        <v>3</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>3</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
-        <v>123</v>
-      </c>
-      <c r="X12" t="s">
-        <v>124</v>
-      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13">
@@ -1803,7 +2038,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -1812,34 +2047,32 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K13" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
-      <c r="N13" t="s"/>
-      <c r="O13" t="s"/>
-      <c r="P13" t="n">
-        <v>5</v>
-      </c>
+      <c r="N13" t="s">
+        <v>133</v>
+      </c>
+      <c r="O13" t="s">
+        <v>68</v>
+      </c>
+      <c r="P13" t="s"/>
       <c r="Q13" t="n">
-        <v>4</v>
-      </c>
-      <c r="R13" t="n">
-        <v>5</v>
-      </c>
-      <c r="S13" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
         <v>5</v>
@@ -1850,7 +2083,7 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14">
@@ -1866,7 +2099,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -1875,47 +2108,43 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="J14" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K14" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="L14" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
-      </c>
-      <c r="P14" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>5</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
       <c r="R14" t="n">
-        <v>5</v>
-      </c>
-      <c r="S14" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15">
@@ -1931,7 +2160,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -1940,39 +2169,49 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="J15" t="s">
+        <v>142</v>
+      </c>
+      <c r="K15" t="s">
+        <v>143</v>
+      </c>
+      <c r="L15" t="s">
+        <v>144</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
         <v>139</v>
       </c>
-      <c r="K15" t="s">
-        <v>140</v>
-      </c>
-      <c r="L15" t="s">
-        <v>141</v>
-      </c>
-      <c r="M15" t="n">
-        <v>4</v>
-      </c>
-      <c r="N15" t="s">
-        <v>142</v>
-      </c>
       <c r="O15" t="s">
-        <v>53</v>
-      </c>
-      <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
-      <c r="S15" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16">
@@ -1988,7 +2227,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -1997,26 +2236,22 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J16" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K16" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L16" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
-      <c r="N16" t="s">
-        <v>148</v>
-      </c>
-      <c r="O16" t="s">
-        <v>53</v>
-      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
       <c r="P16" t="n">
         <v>5</v>
       </c>
@@ -2024,7 +2259,7 @@
         <v>5</v>
       </c>
       <c r="R16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2039,7 +2274,7 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17">
@@ -2055,7 +2290,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2064,37 +2299,37 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J17" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L17" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>121</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
       </c>
       <c r="Q17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
@@ -2106,7 +2341,7 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18">
@@ -2122,7 +2357,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2131,22 +2366,26 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K18" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L18" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
-      </c>
-      <c r="N18" t="s"/>
-      <c r="O18" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>163</v>
+      </c>
+      <c r="O18" t="s">
+        <v>121</v>
+      </c>
       <c r="P18" t="n">
         <v>5</v>
       </c>
@@ -2154,7 +2393,7 @@
         <v>5</v>
       </c>
       <c r="R18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2166,14 +2405,10 @@
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s">
-        <v>161</v>
-      </c>
-      <c r="X18" t="s">
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
         <v>162</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="19">
@@ -2210,41 +2445,33 @@
         <v>168</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N19" t="s">
-        <v>169</v>
-      </c>
-      <c r="O19" t="s">
-        <v>53</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
       <c r="P19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s">
-        <v>170</v>
-      </c>
-      <c r="X19" t="s">
-        <v>171</v>
-      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20">
@@ -2260,7 +2487,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2269,47 +2496,51 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
+        <v>170</v>
+      </c>
+      <c r="J20" t="s">
+        <v>171</v>
+      </c>
+      <c r="K20" t="s">
+        <v>172</v>
+      </c>
+      <c r="L20" t="s">
+        <v>173</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
         <v>174</v>
       </c>
-      <c r="J20" t="s">
-        <v>175</v>
-      </c>
-      <c r="K20" t="s">
-        <v>176</v>
-      </c>
-      <c r="L20" t="s">
-        <v>177</v>
-      </c>
-      <c r="M20" t="n">
-        <v>5</v>
-      </c>
-      <c r="N20" t="s">
-        <v>178</v>
-      </c>
       <c r="O20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="P20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
+      <c r="W20" t="s">
+        <v>175</v>
+      </c>
+      <c r="X20" t="s">
+        <v>176</v>
+      </c>
       <c r="Y20" t="s">
         <v>177</v>
       </c>
@@ -2327,7 +2558,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2336,16 +2567,16 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
+        <v>179</v>
+      </c>
+      <c r="J21" t="s">
         <v>180</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>181</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>182</v>
-      </c>
-      <c r="L21" t="s">
-        <v>183</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
@@ -2356,10 +2587,10 @@
         <v>5</v>
       </c>
       <c r="Q21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
@@ -2371,14 +2602,10 @@
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s">
-        <v>184</v>
-      </c>
-      <c r="X21" t="s">
-        <v>185</v>
-      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22">
@@ -2394,7 +2621,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2403,22 +2630,26 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="J22" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K22" t="s">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="L22" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
-      <c r="N22" t="s"/>
-      <c r="O22" t="s"/>
+      <c r="N22" t="s">
+        <v>187</v>
+      </c>
+      <c r="O22" t="s">
+        <v>68</v>
+      </c>
       <c r="P22" t="n">
         <v>5</v>
       </c>
@@ -2438,14 +2669,1007 @@
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s">
-        <v>184</v>
-      </c>
-      <c r="X22" t="s">
-        <v>185</v>
-      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
       <c r="Y22" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>59936</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>188</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>189</v>
+      </c>
+      <c r="J23" t="s">
+        <v>190</v>
+      </c>
+      <c r="K23" t="s">
+        <v>191</v>
+      </c>
+      <c r="L23" t="s">
         <v>192</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>193</v>
+      </c>
+      <c r="O23" t="s">
+        <v>87</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>59936</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>194</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>195</v>
+      </c>
+      <c r="J24" t="s">
+        <v>196</v>
+      </c>
+      <c r="K24" t="s">
+        <v>197</v>
+      </c>
+      <c r="L24" t="s">
+        <v>198</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>199</v>
+      </c>
+      <c r="O24" t="s">
+        <v>68</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>59936</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>200</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>201</v>
+      </c>
+      <c r="J25" t="s">
+        <v>202</v>
+      </c>
+      <c r="K25" t="s">
+        <v>203</v>
+      </c>
+      <c r="L25" t="s">
+        <v>204</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>205</v>
+      </c>
+      <c r="O25" t="s">
+        <v>68</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>59936</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>206</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>207</v>
+      </c>
+      <c r="J26" t="s">
+        <v>208</v>
+      </c>
+      <c r="K26" t="s">
+        <v>209</v>
+      </c>
+      <c r="L26" t="s">
+        <v>210</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>211</v>
+      </c>
+      <c r="O26" t="s">
+        <v>68</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>59936</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>213</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>214</v>
+      </c>
+      <c r="J27" t="s">
+        <v>215</v>
+      </c>
+      <c r="K27" t="s">
+        <v>216</v>
+      </c>
+      <c r="L27" t="s">
+        <v>217</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>218</v>
+      </c>
+      <c r="O27" t="s">
+        <v>58</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>59936</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>219</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>220</v>
+      </c>
+      <c r="J28" t="s">
+        <v>221</v>
+      </c>
+      <c r="K28" t="s">
+        <v>222</v>
+      </c>
+      <c r="L28" t="s">
+        <v>223</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>211</v>
+      </c>
+      <c r="O28" t="s">
+        <v>58</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>59936</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>224</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>225</v>
+      </c>
+      <c r="J29" t="s">
+        <v>226</v>
+      </c>
+      <c r="K29" t="s">
+        <v>227</v>
+      </c>
+      <c r="L29" t="s">
+        <v>228</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>218</v>
+      </c>
+      <c r="O29" t="s">
+        <v>68</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>59936</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>229</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>230</v>
+      </c>
+      <c r="J30" t="s">
+        <v>231</v>
+      </c>
+      <c r="K30" t="s">
+        <v>232</v>
+      </c>
+      <c r="L30" t="s">
+        <v>233</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>234</v>
+      </c>
+      <c r="X30" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>59936</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>237</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>238</v>
+      </c>
+      <c r="J31" t="s">
+        <v>239</v>
+      </c>
+      <c r="K31" t="s">
+        <v>240</v>
+      </c>
+      <c r="L31" t="s">
+        <v>241</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>242</v>
+      </c>
+      <c r="O31" t="s">
+        <v>68</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>243</v>
+      </c>
+      <c r="X31" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>59936</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>246</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>247</v>
+      </c>
+      <c r="J32" t="s">
+        <v>248</v>
+      </c>
+      <c r="K32" t="s">
+        <v>249</v>
+      </c>
+      <c r="L32" t="s">
+        <v>250</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>251</v>
+      </c>
+      <c r="O32" t="s">
+        <v>87</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>59936</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>252</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>253</v>
+      </c>
+      <c r="J33" t="s">
+        <v>254</v>
+      </c>
+      <c r="K33" t="s">
+        <v>255</v>
+      </c>
+      <c r="L33" t="s">
+        <v>256</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>257</v>
+      </c>
+      <c r="O33" t="s">
+        <v>68</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>258</v>
+      </c>
+      <c r="X33" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>59936</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>261</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>262</v>
+      </c>
+      <c r="J34" t="s">
+        <v>263</v>
+      </c>
+      <c r="K34" t="s">
+        <v>264</v>
+      </c>
+      <c r="L34" t="s">
+        <v>265</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>266</v>
+      </c>
+      <c r="O34" t="s">
+        <v>87</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>59936</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>267</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>268</v>
+      </c>
+      <c r="J35" t="s">
+        <v>269</v>
+      </c>
+      <c r="K35" t="s">
+        <v>270</v>
+      </c>
+      <c r="L35" t="s">
+        <v>271</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>258</v>
+      </c>
+      <c r="X35" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>59936</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>273</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>274</v>
+      </c>
+      <c r="J36" t="s">
+        <v>275</v>
+      </c>
+      <c r="K36" t="s">
+        <v>276</v>
+      </c>
+      <c r="L36" t="s">
+        <v>277</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>258</v>
+      </c>
+      <c r="X36" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>59936</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>279</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>280</v>
+      </c>
+      <c r="J37" t="s">
+        <v>281</v>
+      </c>
+      <c r="K37" t="s">
+        <v>282</v>
+      </c>
+      <c r="L37" t="s">
+        <v>283</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>284</v>
+      </c>
+      <c r="O37" t="s">
+        <v>68</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>258</v>
+      </c>
+      <c r="X37" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>
